--- a/excel-use-cases/OneNet/WECL-PT-03/WECL-PT-03 - IEC62559-2_TEMPLATE.xlsx
+++ b/excel-use-cases/OneNet/WECL-PT-03/WECL-PT-03 - IEC62559-2_TEMPLATE.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="299">
   <si>
     <t xml:space="preserve">1 Description of the use case</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t xml:space="preserve">IEC62559.DrawingClassification.use_case_overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEC62559.DrawingClassification.scenario_overview</t>
   </si>
   <si>
     <t xml:space="preserve">Diagram URI type</t>
@@ -1767,8 +1770,8 @@
   </sheetPr>
   <dimension ref="A1:CQ153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2148,7 +2151,7 @@
         <v>57</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -2156,13 +2159,13 @@
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="18"/>
       <c r="B40" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
@@ -2171,27 +2174,27 @@
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="19"/>
       <c r="B41" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -2201,7 +2204,7 @@
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
       <c r="B44" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="12"/>
@@ -2211,7 +2214,7 @@
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4"/>
       <c r="B45" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="12"/>
@@ -2221,16 +2224,16 @@
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4"/>
       <c r="B46" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -2238,16 +2241,16 @@
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
       <c r="B47" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="24"/>
@@ -2255,16 +2258,16 @@
     <row r="48" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
       <c r="B48" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="24"/>
@@ -2272,7 +2275,7 @@
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4"/>
       <c r="B49" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="12"/>
@@ -2282,7 +2285,7 @@
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -2302,7 +2305,7 @@
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
       <c r="B52" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="12"/>
@@ -2312,7 +2315,7 @@
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4"/>
       <c r="B53" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="12"/>
@@ -2322,7 +2325,7 @@
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4"/>
       <c r="B54" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="12"/>
@@ -2332,7 +2335,7 @@
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4"/>
       <c r="B55" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="12"/>
@@ -2342,7 +2345,7 @@
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4"/>
       <c r="B56" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="12"/>
@@ -2352,7 +2355,7 @@
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
       <c r="B57" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="12"/>
@@ -2362,7 +2365,7 @@
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
       <c r="B58" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="12"/>
@@ -2376,17 +2379,17 @@
     </row>
     <row r="60" customFormat="false" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4"/>
       <c r="B61" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2396,7 +2399,7 @@
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4"/>
       <c r="B62" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C62" s="9" t="n">
         <v>1</v>
@@ -2412,16 +2415,16 @@
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
       <c r="B63" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
@@ -2429,16 +2432,16 @@
     <row r="64" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4"/>
       <c r="B64" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="24"/>
@@ -2446,16 +2449,16 @@
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4"/>
       <c r="B65" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F65" s="12"/>
       <c r="G65" s="24"/>
@@ -2463,19 +2466,19 @@
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4"/>
       <c r="B66" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F66" s="12"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4"/>
       <c r="B67" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="12"/>
@@ -2485,7 +2488,7 @@
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4"/>
       <c r="B68" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="12"/>
@@ -2495,7 +2498,7 @@
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2505,112 +2508,112 @@
     <row r="70" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4"/>
       <c r="B70" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N70" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O70" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q70" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="V70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AE70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AH70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AI70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK70" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AQ70" s="12"/>
       <c r="AR70" s="12"/>
@@ -2669,112 +2672,112 @@
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4"/>
       <c r="B71" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N71" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O71" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q71" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R71" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S71" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T71" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="U71" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V71" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="W71" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="X71" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Y71" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z71" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA71" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AB71" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC71" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AD71" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE71" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF71" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG71" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AH71" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AI71" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ71" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK71" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AQ71" s="12"/>
       <c r="AR71" s="12"/>
@@ -2833,7 +2836,7 @@
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4"/>
       <c r="B72" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="12"/>
@@ -2927,112 +2930,112 @@
     <row r="73" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4"/>
       <c r="B73" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N73" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O73" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q73" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R73" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="S73" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T73" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="U73" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V73" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W73" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X73" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y73" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z73" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA73" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AB73" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AC73" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AD73" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AE73" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF73" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG73" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AH73" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AI73" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ73" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AK73" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AQ73" s="12"/>
       <c r="AR73" s="12"/>
@@ -3091,112 +3094,112 @@
     <row r="74" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="4"/>
       <c r="B74" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N74" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O74" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q74" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R74" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S74" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T74" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U74" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V74" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W74" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X74" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y74" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z74" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA74" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AB74" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AC74" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD74" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AE74" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF74" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG74" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AH74" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AI74" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AJ74" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK74" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ74" s="12"/>
       <c r="AR74" s="12"/>
@@ -3255,112 +3258,112 @@
     <row r="75" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4"/>
       <c r="B75" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H75" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="K75" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="I75" s="12" t="s">
+      <c r="L75" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="J75" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="K75" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="L75" s="12" t="s">
-        <v>218</v>
-      </c>
       <c r="M75" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N75" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="O75" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="P75" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q75" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="R75" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="S75" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="T75" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="O75" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="P75" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q75" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="R75" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="S75" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="T75" s="12" t="s">
-        <v>220</v>
-      </c>
       <c r="U75" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V75" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="W75" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="X75" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y75" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z75" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA75" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="Y75" s="12" t="s">
+      <c r="AB75" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="Z75" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA75" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB75" s="12" t="s">
-        <v>218</v>
-      </c>
       <c r="AC75" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AD75" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AE75" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF75" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG75" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AH75" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI75" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AJ75" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK75" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AQ75" s="12"/>
       <c r="AR75" s="12"/>
@@ -3419,112 +3422,112 @@
     <row r="76" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4"/>
       <c r="B76" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E76" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F76" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="F76" s="12" t="s">
-        <v>223</v>
-      </c>
       <c r="G76" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H76" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="I76" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="I76" s="12" t="s">
+      <c r="J76" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="J76" s="12" t="s">
-        <v>223</v>
-      </c>
       <c r="K76" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="L76" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="M76" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="N76" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="O76" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="P76" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q76" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="R76" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="S76" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="T76" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="U76" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="V76" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="W76" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="X76" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y76" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z76" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="L76" s="12" t="s">
+      <c r="AA76" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="M76" s="12" t="s">
+      <c r="AB76" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC76" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD76" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="N76" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="O76" s="12" t="s">
+      <c r="AE76" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF76" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG76" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH76" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI76" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="P76" s="12" t="s">
+      <c r="AJ76" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="Q76" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="R76" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="S76" s="12" t="s">
+      <c r="AK76" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="T76" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="U76" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="V76" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="W76" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="X76" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y76" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z76" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA76" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB76" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC76" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD76" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="AE76" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF76" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG76" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="AH76" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI76" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="AJ76" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="AK76" s="12" t="s">
-        <v>224</v>
       </c>
       <c r="AQ76" s="12"/>
       <c r="AR76" s="12"/>
@@ -3583,112 +3586,112 @@
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4"/>
       <c r="B77" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E77" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="L77" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="F77" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="H77" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="J77" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="K77" s="12" t="s">
+      <c r="M77" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="L77" s="12" t="s">
+      <c r="N77" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="O77" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="P77" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q77" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="M77" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="N77" s="12" t="s">
+      <c r="R77" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="S77" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="O77" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="P77" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q77" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="R77" s="12" t="s">
+      <c r="T77" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="U77" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="V77" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="S77" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="T77" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="U77" s="12" t="s">
+      <c r="W77" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="X77" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y77" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z77" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA77" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB77" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="V77" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="W77" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="X77" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y77" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z77" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA77" s="12" t="s">
+      <c r="AC77" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD77" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE77" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="AB77" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC77" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD77" s="12" t="s">
+      <c r="AF77" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG77" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH77" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="AE77" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF77" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG77" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH77" s="12" t="s">
-        <v>224</v>
-      </c>
       <c r="AI77" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AJ77" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK77" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AQ77" s="12"/>
       <c r="AR77" s="12"/>
@@ -3747,112 +3750,112 @@
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="18"/>
       <c r="B78" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N78" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O78" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q78" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R78" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S78" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T78" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="U78" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="V78" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="W78" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="X78" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y78" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z78" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA78" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AB78" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AC78" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD78" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AE78" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF78" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG78" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AH78" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AI78" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AJ78" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK78" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AQ78" s="12"/>
       <c r="AR78" s="12"/>
@@ -3911,7 +3914,7 @@
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="19"/>
       <c r="B79" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="12"/>
@@ -4041,10 +4044,10 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="12"/>
@@ -4078,73 +4081,73 @@
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4"/>
       <c r="B82" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M82" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N82" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O82" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q82" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R82" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="S82" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T82" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="U82" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="V82" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="W82" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="X82" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y82" s="12"/>
       <c r="Z82" s="12"/>
@@ -4174,73 +4177,73 @@
     <row r="83" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4"/>
       <c r="B83" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N83" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O83" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P83" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q83" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="R83" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="S83" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="T83" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="U83" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="V83" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W83" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="X83" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y83" s="12"/>
       <c r="Z83" s="12"/>
@@ -4270,77 +4273,77 @@
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4"/>
       <c r="B84" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="T84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X84" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y84" s="12"/>
       <c r="Z84" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA84" s="12"/>
       <c r="AB84" s="12"/>
@@ -4348,7 +4351,7 @@
       <c r="AD84" s="12"/>
       <c r="AE84" s="12"/>
       <c r="AF84" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG84" s="12"/>
       <c r="AH84" s="12"/>
@@ -5110,7 +5113,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -5123,11 +5126,11 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
@@ -5138,150 +5141,150 @@
     </row>
     <row r="3" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L3" s="32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="140.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>218</v>
-      </c>
       <c r="F4" s="32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M4" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="178.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>218</v>
-      </c>
       <c r="F5" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
       <c r="M5" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>218</v>
-      </c>
       <c r="F6" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="G6" s="34" t="s">
-        <v>224</v>
-      </c>
       <c r="H6" s="34" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5289,123 +5292,123 @@
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
       <c r="D7" s="39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
       <c r="M7" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="178.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>218</v>
-      </c>
       <c r="F9" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
       <c r="M9" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>218</v>
-      </c>
       <c r="F10" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>224</v>
-      </c>
       <c r="H10" s="34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,7 +5416,7 @@
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
       <c r="D11" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
@@ -5422,209 +5425,209 @@
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
       <c r="M11" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="178.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="140.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="140.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L14" s="32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L15" s="34" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B16" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>218</v>
-      </c>
       <c r="F16" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B17" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>218</v>
-      </c>
       <c r="F17" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="G17" s="34" t="s">
-        <v>224</v>
-      </c>
       <c r="H17" s="34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L17" s="34" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5632,7 +5635,7 @@
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
@@ -5641,457 +5644,457 @@
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
       <c r="M18" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="178.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L19" s="34" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="127.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B20" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>218</v>
-      </c>
       <c r="F20" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
       <c r="M20" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B21" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>218</v>
-      </c>
       <c r="F21" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="G21" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="G21" s="32" t="s">
-        <v>224</v>
-      </c>
       <c r="H21" s="32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L21" s="34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="178.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
       <c r="M22" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="280.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M23" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="127.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B24" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>218</v>
-      </c>
       <c r="F24" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="G24" s="32" t="s">
-        <v>224</v>
-      </c>
       <c r="H24" s="32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
       <c r="M24" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="280.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L25" s="40" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M25" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="204" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
       <c r="M26" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L27" s="34" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M27" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
       <c r="M28" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K29" s="34" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L29" s="34" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M29" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
       <c r="M30" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K31" s="34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L31" s="34" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M31" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
       <c r="M32" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K33" s="34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L33" s="34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M33" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K34" s="36"/>
       <c r="L34" s="36"/>
       <c r="M34" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K35" s="34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L35" s="34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M35" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
       <c r="M36" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K37" s="34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L37" s="34" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M37" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
       <c r="M38" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K39" s="34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L39" s="40" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M39" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
       <c r="M40" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K41" s="34" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L41" s="34" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M41" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
       <c r="M42" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K43" s="34" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L43" s="34" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M43" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K44" s="36"/>
       <c r="L44" s="36"/>
       <c r="M44" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -6128,12 +6131,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
